--- a/WindowsFormsApp1/Reports/1.xlsx
+++ b/WindowsFormsApp1/Reports/1.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_A_REALLY_BIG_SHIT\KATYA\WindowsFormsApp123\WindowsFormsApp1\Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="3600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="3600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>РАЗДЕЛ I
  ВЫПОЛНЕНИЕ МЕРОПРИЯТИЙ ПО ЭНЕРГОСБЕРЕЖЕНИЮ</t>
@@ -131,6 +127,9 @@
   </si>
   <si>
     <t>Итого по разделу I:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -446,38 +445,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,8 +523,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,146 +839,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="21" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="52"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="49" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1032,24 +1031,24 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
@@ -1110,24 +1109,24 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -1188,24 +1187,24 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -1307,6 +1306,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:A5"/>
@@ -1323,15 +1330,25 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>